--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Reference Dose Number</t>
+    <t>NG-Imm Allergy Dose Number</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T08:07:26+01:00</t>
+    <t>2025-07-03T11:54:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-allergy-reference-dose-number.xlsx
+++ b/StructureDefinition-allergy-reference-dose-number.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
